--- a/src/data/RegistrarProductoData.xlsx
+++ b/src/data/RegistrarProductoData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veliz/Development/workspace-vscode-macbookpro/workspace-201901/workspace-isw/bodeguita/bodeguita-test/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D42DAD-4815-D94A-87A7-CDCE03DAE1C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB47A09-5145-A84E-BB0C-7A6003019B70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="7960" windowWidth="28840" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Caso de Prueba</t>
   </si>
@@ -75,18 +75,12 @@
     <t>Galleta Casino Clásica</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>Se guardó de manera correcta el Producto</t>
   </si>
   <si>
     <t>Registrar Producto - Criterio Aceptación 01</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>http://localhost:3000</t>
   </si>
   <si>
@@ -94,6 +88,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Extranjera</t>
+  </si>
+  <si>
+    <t>Otros</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,10 +556,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -574,21 +580,21 @@
         <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -600,22 +606,27 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1">
         <v>0.5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
